--- a/biology/Zoologie/Beethoven_4/Beethoven_4.xlsx
+++ b/biology/Zoologie/Beethoven_4/Beethoven_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beethoven 4 (Beethoven's 4th) est un film américain de David M. Evans sorti en 2001 directement en vidéo et succédant à Beethoven (1992), à Beethoven 2 (1993) et à Beethoven 3 (2000).
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Newton (la même que celle du 3e volet) est de plus en plus agacée par le manque de discipline de Beethoven. Les enfants décident alors de l'inscrire secrètement dans un centre de dressage. Lors d'une promenade au parc, Beethoven s'échappe et se retrouve confondu avec Michelangelo, un chien parfaitement dressé qui lui ressemble énormément.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : David M. Evans
 Scénario : John Hughes, Amy Holden Jones et John Loy
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Judge Reinhold : Richard Newton
 Julia Sweeney : Beth Newton
